--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2002,28 +2002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.5877654705215</v>
+        <v>257.121326161006</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.5544005957862</v>
+        <v>351.804741845657</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.4881560478003</v>
+        <v>318.2289910450688</v>
       </c>
       <c r="AD2" t="n">
-        <v>222587.7654705215</v>
+        <v>257121.3261610061</v>
       </c>
       <c r="AE2" t="n">
-        <v>304554.4005957862</v>
+        <v>351804.741845657</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.328779196063874e-06</v>
+        <v>4.798982509756855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.130859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>275488.1560478003</v>
+        <v>318228.9910450688</v>
       </c>
     </row>
     <row r="3">
@@ -2108,28 +2108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.3360899441603</v>
+        <v>148.6988794169506</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.4396824138229</v>
+        <v>203.45636694975</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.5092986887638</v>
+        <v>184.0387768409282</v>
       </c>
       <c r="AD3" t="n">
-        <v>114336.0899441603</v>
+        <v>148698.8794169506</v>
       </c>
       <c r="AE3" t="n">
-        <v>156439.6824138229</v>
+        <v>203456.36694975</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.073416899977978e-06</v>
+        <v>7.314164603194058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>141509.2986887638</v>
+        <v>184038.7768409282</v>
       </c>
     </row>
     <row r="4">
@@ -2214,28 +2214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.89311040879839</v>
+        <v>125.6226215946563</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.6781606342633</v>
+        <v>171.8824129446583</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.6337888123691</v>
+        <v>155.4781966917496</v>
       </c>
       <c r="AD4" t="n">
-        <v>99893.1104087984</v>
+        <v>125622.6215946563</v>
       </c>
       <c r="AE4" t="n">
-        <v>136678.1606342633</v>
+        <v>171882.4129446583</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.717362433740986e-06</v>
+        <v>8.24251796391526e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.315755208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>123633.7888123691</v>
+        <v>155478.1966917496</v>
       </c>
     </row>
     <row r="5">
@@ -2320,28 +2320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.40460178868257</v>
+        <v>113.6714268882004</v>
       </c>
       <c r="AB5" t="n">
-        <v>131.9050292380848</v>
+        <v>155.5302610977944</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.3161983775084</v>
+        <v>140.6866712667559</v>
       </c>
       <c r="AD5" t="n">
-        <v>96404.60178868257</v>
+        <v>113671.4268882004</v>
       </c>
       <c r="AE5" t="n">
-        <v>131905.0292380848</v>
+        <v>155530.2610977944</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.882246849084683e-06</v>
+        <v>8.480225957975524e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.166015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>119316.1983775083</v>
+        <v>140686.6712667559</v>
       </c>
     </row>
   </sheetData>
@@ -2617,28 +2617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.5660200335943</v>
+        <v>193.2357142536059</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.3252681658424</v>
+        <v>264.3936291997138</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.4886109935954</v>
+        <v>239.1602723077595</v>
       </c>
       <c r="AD2" t="n">
-        <v>159566.0200335943</v>
+        <v>193235.714253606</v>
       </c>
       <c r="AE2" t="n">
-        <v>218325.2681658424</v>
+        <v>264393.6291997138</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.077661647283844e-06</v>
+        <v>5.969543254262244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.711588541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>197488.6109935954</v>
+        <v>239160.2723077595</v>
       </c>
     </row>
     <row r="3">
@@ -2723,28 +2723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.80927115921425</v>
+        <v>122.8909496236308</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.8269598404843</v>
+        <v>168.144818841041</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.054702620662</v>
+        <v>152.0973133236341</v>
       </c>
       <c r="AD3" t="n">
-        <v>97809.27115921424</v>
+        <v>122890.9496236308</v>
       </c>
       <c r="AE3" t="n">
-        <v>133826.9598404843</v>
+        <v>168144.818841041</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.719234847275228e-06</v>
+        <v>8.372744664784797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.498046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>121054.702620662</v>
+        <v>152097.3133236341</v>
       </c>
     </row>
     <row r="4">
@@ -2829,28 +2829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.88101314689307</v>
+        <v>108.7159497654499</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.7156556917453</v>
+        <v>148.7499586782294</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.7175299555892</v>
+        <v>134.5534713938979</v>
       </c>
       <c r="AD4" t="n">
-        <v>91881.01314689306</v>
+        <v>108715.9497654499</v>
       </c>
       <c r="AE4" t="n">
-        <v>125715.6556917453</v>
+        <v>148749.9586782294</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.047819927668889e-06</v>
+        <v>8.853780861454464e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.198567708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>113717.5299555892</v>
+        <v>134553.4713938979</v>
       </c>
     </row>
   </sheetData>
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.15703259264113</v>
+        <v>105.4588987953604</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.4108765056791</v>
+        <v>144.2935178500074</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6825402216621</v>
+        <v>130.522347023666</v>
       </c>
       <c r="AD2" t="n">
-        <v>82157.03259264113</v>
+        <v>105458.8987953604</v>
       </c>
       <c r="AE2" t="n">
-        <v>112410.8765056791</v>
+        <v>144293.5178500075</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.152162813672909e-06</v>
+        <v>9.518155252142103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>101682.5402216621</v>
+        <v>130522.347023666</v>
       </c>
     </row>
   </sheetData>
@@ -3423,28 +3423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.1139138107483</v>
+        <v>127.0930589999612</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.0850059406267</v>
+        <v>173.8943302737152</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.6200509877408</v>
+        <v>157.2980994546657</v>
       </c>
       <c r="AD2" t="n">
-        <v>103113.9138107483</v>
+        <v>127093.0589999612</v>
       </c>
       <c r="AE2" t="n">
-        <v>141085.0059406267</v>
+        <v>173894.3302737152</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.585026016151646e-06</v>
+        <v>8.440616131787277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.009114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>127620.0509877408</v>
+        <v>157298.0994546657</v>
       </c>
     </row>
     <row r="3">
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.10334986867039</v>
+        <v>108.9971542033116</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.4421577850849</v>
+        <v>149.1347149959758</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.3290816737014</v>
+        <v>134.9015071086876</v>
       </c>
       <c r="AD3" t="n">
-        <v>85103.3498686704</v>
+        <v>108997.1542033116</v>
       </c>
       <c r="AE3" t="n">
-        <v>116442.1577850849</v>
+        <v>149134.7149959758</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.213042436628305e-06</v>
+        <v>9.389733560134571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.403645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>105329.0816737014</v>
+        <v>134901.5071086876</v>
       </c>
     </row>
   </sheetData>
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.61198858525744</v>
+        <v>111.20317215066</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.2428320673325</v>
+        <v>152.1530860741795</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.6715863402416</v>
+        <v>137.6318090874989</v>
       </c>
       <c r="AD2" t="n">
-        <v>88611.98858525744</v>
+        <v>111203.17215066</v>
       </c>
       <c r="AE2" t="n">
-        <v>121242.8320673325</v>
+        <v>152153.0860741795</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.944488444483941e-06</v>
+        <v>9.395192595236826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.129557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>109671.5863402416</v>
+        <v>137631.8090874989</v>
       </c>
     </row>
   </sheetData>
@@ -4123,28 +4123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.6960516976642</v>
+        <v>211.5075309614045</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.1315773291576</v>
+        <v>289.393934914973</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.9274408262452</v>
+        <v>261.7745839337118</v>
       </c>
       <c r="AD2" t="n">
-        <v>177696.0516976643</v>
+        <v>211507.5309614045</v>
       </c>
       <c r="AE2" t="n">
-        <v>243131.5773291576</v>
+        <v>289393.934914973</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.885107305861959e-06</v>
+        <v>5.664044672154322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>219927.4408262452</v>
+        <v>261774.5839337118</v>
       </c>
     </row>
     <row r="3">
@@ -4229,28 +4229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.7276530180429</v>
+        <v>127.1502009753635</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.1882627665383</v>
+        <v>173.9725144453868</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.904330320091</v>
+        <v>157.3688218387252</v>
       </c>
       <c r="AD3" t="n">
-        <v>101727.6530180429</v>
+        <v>127150.2009753636</v>
       </c>
       <c r="AE3" t="n">
-        <v>139188.2627665383</v>
+        <v>173972.5144453868</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.553571802362975e-06</v>
+        <v>8.096476185133745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.611979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>125904.330320091</v>
+        <v>157368.8218387252</v>
       </c>
     </row>
     <row r="4">
@@ -4335,28 +4335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.04369296291101</v>
+        <v>109.9921477763425</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.3064855098336</v>
+        <v>150.4961090986144</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.1565332085834</v>
+        <v>136.1329716688994</v>
       </c>
       <c r="AD4" t="n">
-        <v>93043.69296291101</v>
+        <v>109992.1477763425</v>
       </c>
       <c r="AE4" t="n">
-        <v>127306.4855098336</v>
+        <v>150496.1090986144</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.002490308965567e-06</v>
+        <v>8.750948320746938e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.192057291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>115156.5332085834</v>
+        <v>136132.9716688994</v>
       </c>
     </row>
   </sheetData>
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.38920480960209</v>
+        <v>110.7806316073048</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.9380094769545</v>
+        <v>151.574947461588</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.3958555900679</v>
+        <v>137.1088472126703</v>
       </c>
       <c r="AD2" t="n">
-        <v>88389.20480960209</v>
+        <v>110780.6316073048</v>
       </c>
       <c r="AE2" t="n">
-        <v>120938.0094769545</v>
+        <v>151574.947461588</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.723789924568971e-06</v>
+        <v>9.170855964121972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.513671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>109395.8555900679</v>
+        <v>137108.8472126703</v>
       </c>
     </row>
   </sheetData>
@@ -4929,28 +4929,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.0841911552565</v>
+        <v>157.9317015885761</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.1457086635973</v>
+        <v>216.0891215683284</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.8118024333019</v>
+        <v>195.4658790888959</v>
       </c>
       <c r="AD2" t="n">
-        <v>125084.1911552565</v>
+        <v>157931.7015885761</v>
       </c>
       <c r="AE2" t="n">
-        <v>171145.7086635973</v>
+        <v>216089.1215683284</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.752857607820524e-06</v>
+        <v>7.057248285897362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.81640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>154811.8024333019</v>
+        <v>195465.8790888959</v>
       </c>
     </row>
     <row r="3">
@@ -5035,28 +5035,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.84223994023056</v>
+        <v>113.3712862055567</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.5578721291794</v>
+        <v>155.1195953745291</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.9565594207474</v>
+        <v>140.315198903746</v>
       </c>
       <c r="AD3" t="n">
-        <v>88842.23994023056</v>
+        <v>113371.2862055567</v>
       </c>
       <c r="AE3" t="n">
-        <v>121557.8721291794</v>
+        <v>155119.5953745291</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.11429989195596e-06</v>
+        <v>9.078776599780275e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.299479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>109956.5594207474</v>
+        <v>140315.198903746</v>
       </c>
     </row>
     <row r="4">
@@ -5141,28 +5141,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.6975569209131</v>
+        <v>105.1640720734097</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.3599104391851</v>
+        <v>143.8901229221978</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.7774909166051</v>
+        <v>130.1574515415981</v>
       </c>
       <c r="AD4" t="n">
-        <v>88697.55692091311</v>
+        <v>105164.0720734097</v>
       </c>
       <c r="AE4" t="n">
-        <v>121359.9104391851</v>
+        <v>143890.1229221978</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.140372392390394e-06</v>
+        <v>9.1174901746825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.276692708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>109777.4909166051</v>
+        <v>130157.4515415981</v>
       </c>
     </row>
   </sheetData>
@@ -5438,28 +5438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.5977452371414</v>
+        <v>183.8611775231356</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.0544789369814</v>
+        <v>251.5669744697187</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.3889286665721</v>
+        <v>227.5577755028681</v>
       </c>
       <c r="AD2" t="n">
-        <v>150597.7452371414</v>
+        <v>183861.1775231356</v>
       </c>
       <c r="AE2" t="n">
-        <v>206054.4789369814</v>
+        <v>251566.9744697187</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.280198425880951e-06</v>
+        <v>6.293785584572301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.415364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>186388.9286665721</v>
+        <v>227557.7755028681</v>
       </c>
     </row>
     <row r="3">
@@ -5544,28 +5544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.02717088936039</v>
+        <v>118.9320970537079</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.6521233967849</v>
+        <v>162.7281421026262</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.3737453042191</v>
+        <v>147.1975966107784</v>
       </c>
       <c r="AD3" t="n">
-        <v>94027.17088936039</v>
+        <v>118932.097053708</v>
       </c>
       <c r="AE3" t="n">
-        <v>128652.1233967849</v>
+        <v>162728.1421026262</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.887832296351705e-06</v>
+        <v>8.657718718620051e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>116373.7453042191</v>
+        <v>147197.5966107784</v>
       </c>
     </row>
     <row r="4">
@@ -5650,28 +5650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.06861088641895</v>
+        <v>107.7857126382632</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.604091078307</v>
+        <v>147.4771672016475</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.7120515087663</v>
+        <v>133.4021533494665</v>
       </c>
       <c r="AD4" t="n">
-        <v>91068.61088641896</v>
+        <v>107785.7126382632</v>
       </c>
       <c r="AE4" t="n">
-        <v>124604.091078307</v>
+        <v>147477.1672016474</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.056415445432487e-06</v>
+        <v>8.905610542295971e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.240885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>112712.0515087663</v>
+        <v>133402.1533494664</v>
       </c>
     </row>
   </sheetData>
@@ -5947,28 +5947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.1969344043421</v>
+        <v>244.0215695914158</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.2865218341904</v>
+        <v>333.8810769866803</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.0135625574759</v>
+        <v>302.0159356042056</v>
       </c>
       <c r="AD2" t="n">
-        <v>201196.9344043421</v>
+        <v>244021.5695914158</v>
       </c>
       <c r="AE2" t="n">
-        <v>275286.5218341904</v>
+        <v>333881.0769866803</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.49862865681153e-06</v>
+        <v>5.06171975170677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.756510416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>249013.5625574759</v>
+        <v>302015.9356042056</v>
       </c>
     </row>
     <row r="3">
@@ -6053,28 +6053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.5958352625759</v>
+        <v>136.3418208875631</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.3221009500908</v>
+        <v>186.5488943149033</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.880132017358</v>
+        <v>168.744929664559</v>
       </c>
       <c r="AD3" t="n">
-        <v>110595.8352625759</v>
+        <v>136341.8208875631</v>
       </c>
       <c r="AE3" t="n">
-        <v>151322.1009500908</v>
+        <v>186548.8943149033</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.210156854599681e-06</v>
+        <v>7.53791169264932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.87890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>136880.132017358</v>
+        <v>168744.929664559</v>
       </c>
     </row>
     <row r="4">
@@ -6159,28 +6159,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.59822449648756</v>
+        <v>113.7623044216967</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.1699523689344</v>
+        <v>155.6546037483578</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.5558376165717</v>
+        <v>140.7991468292656</v>
       </c>
       <c r="AD4" t="n">
-        <v>96598.22449648756</v>
+        <v>113762.3044216967</v>
       </c>
       <c r="AE4" t="n">
-        <v>132169.9523689344</v>
+        <v>155654.6037483578</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.855579728262451e-06</v>
+        <v>8.471691761437618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.231119791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>119555.8376165717</v>
+        <v>140799.1468292656</v>
       </c>
     </row>
     <row r="5">
@@ -6265,28 +6265,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.8358318486122</v>
+        <v>112.9999117738214</v>
       </c>
       <c r="AB5" t="n">
-        <v>131.1268131137221</v>
+        <v>154.6114644931455</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.6122541078213</v>
+        <v>139.8555633205153</v>
       </c>
       <c r="AD5" t="n">
-        <v>95835.8318486122</v>
+        <v>112999.9117738214</v>
       </c>
       <c r="AE5" t="n">
-        <v>131126.813113722</v>
+        <v>154611.4644931455</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.898118535333839e-06</v>
+        <v>8.533235737974847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>118612.2541078213</v>
+        <v>139855.5633205153</v>
       </c>
     </row>
   </sheetData>
@@ -6562,28 +6562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.2974400953667</v>
+        <v>134.4996164489426</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.9138235180497</v>
+        <v>184.0283089296601</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.5108200104098</v>
+        <v>166.4649054108188</v>
       </c>
       <c r="AD2" t="n">
-        <v>110297.4400953667</v>
+        <v>134499.6164489426</v>
       </c>
       <c r="AE2" t="n">
-        <v>150913.8235180497</v>
+        <v>184028.3089296601</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.276268648822691e-06</v>
+        <v>7.92329144945128e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.282552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>136510.8200104098</v>
+        <v>166464.9054108188</v>
       </c>
     </row>
     <row r="3">
@@ -6668,28 +6668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.24617887826733</v>
+        <v>110.3630143772716</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.0058268540722</v>
+        <v>151.003545143485</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.7435163613684</v>
+        <v>136.5919787298387</v>
       </c>
       <c r="AD3" t="n">
-        <v>86246.17887826732</v>
+        <v>110363.0143772716</v>
       </c>
       <c r="AE3" t="n">
-        <v>118005.8268540722</v>
+        <v>151003.545143485</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.192707499273331e-06</v>
+        <v>9.299493570876756e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>106743.5163613684</v>
+        <v>136591.9787298387</v>
       </c>
     </row>
   </sheetData>
@@ -6965,28 +6965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.89559730388521</v>
+        <v>107.4701732801262</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.789657443664</v>
+        <v>147.0454323312306</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.8342936455664</v>
+        <v>133.0116226491384</v>
       </c>
       <c r="AD2" t="n">
-        <v>83895.59730388521</v>
+        <v>107470.1732801262</v>
       </c>
       <c r="AE2" t="n">
-        <v>114789.6574436639</v>
+        <v>147045.4323312306</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.131302572215193e-06</v>
+        <v>9.403865386545223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.631510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103834.2936455664</v>
+        <v>133011.6226491384</v>
       </c>
     </row>
     <row r="3">
@@ -7071,28 +7071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.25965033312754</v>
+        <v>106.8342263093685</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.9195267422735</v>
+        <v>146.1753016298402</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.0472069970803</v>
+        <v>132.2245360006523</v>
       </c>
       <c r="AD3" t="n">
-        <v>83259.65033312755</v>
+        <v>106834.2263093685</v>
       </c>
       <c r="AE3" t="n">
-        <v>113919.5267422735</v>
+        <v>146175.3016298402</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.201512779663714e-06</v>
+        <v>9.511550063957703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.56640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>103047.2069970803</v>
+        <v>132224.5360006522</v>
       </c>
     </row>
   </sheetData>
@@ -11917,28 +11917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.3666399456673</v>
+        <v>104.3714202159412</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.3294264164275</v>
+        <v>142.805581681478</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.7043022111035</v>
+        <v>129.176417394729</v>
       </c>
       <c r="AD2" t="n">
-        <v>81366.6399456673</v>
+        <v>104371.4202159412</v>
       </c>
       <c r="AE2" t="n">
-        <v>111329.4264164275</v>
+        <v>142805.581681478</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.082862334173663e-06</v>
+        <v>9.504352410463212e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.872395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100704.3022111035</v>
+        <v>129176.417394729</v>
       </c>
     </row>
   </sheetData>
@@ -12214,28 +12214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.39722207572862</v>
+        <v>118.2725800617735</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.8949319892513</v>
+        <v>161.8257618584258</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.3070647959319</v>
+        <v>146.3813382705854</v>
       </c>
       <c r="AD2" t="n">
-        <v>96397.22207572863</v>
+        <v>118272.5800617735</v>
       </c>
       <c r="AE2" t="n">
-        <v>131894.9319892513</v>
+        <v>161825.7618584257</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.330264072425925e-06</v>
+        <v>8.686604141929618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.190755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>119307.0647959319</v>
+        <v>146381.3382705854</v>
       </c>
     </row>
   </sheetData>
@@ -12511,28 +12511,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.1989383357683</v>
+        <v>166.0906147619826</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.1946166884329</v>
+        <v>227.2525065180231</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.756393622091</v>
+        <v>205.5638462469045</v>
       </c>
       <c r="AD2" t="n">
-        <v>141198.9383357683</v>
+        <v>166090.6147619826</v>
       </c>
       <c r="AE2" t="n">
-        <v>193194.616688433</v>
+        <v>227252.5065180231</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.523524013903626e-06</v>
+        <v>6.682967548050563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.086588541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>174756.393622091</v>
+        <v>205563.8462469045</v>
       </c>
     </row>
     <row r="3">
@@ -12617,28 +12617,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.65428222157931</v>
+        <v>115.3752769386504</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.037188320183</v>
+        <v>157.861543905378</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.1992531542245</v>
+        <v>142.7954597151605</v>
       </c>
       <c r="AD3" t="n">
-        <v>90654.28222157931</v>
+        <v>115375.2769386504</v>
       </c>
       <c r="AE3" t="n">
-        <v>124037.188320183</v>
+        <v>157861.543905378</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.04095041055631e-06</v>
+        <v>8.924784179114264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.305989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>112199.2531542245</v>
+        <v>142795.4597151605</v>
       </c>
     </row>
     <row r="4">
@@ -12723,28 +12723,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.64844829621198</v>
+        <v>106.2429290832052</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.6609619692351</v>
+        <v>145.3662626788114</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.9543719146648</v>
+        <v>131.4927105916161</v>
       </c>
       <c r="AD4" t="n">
-        <v>89648.44829621198</v>
+        <v>106242.9290832052</v>
       </c>
       <c r="AE4" t="n">
-        <v>122660.9619692351</v>
+        <v>145366.2626788114</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.114217023516891e-06</v>
+        <v>9.033026866732631e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.244140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>110954.3719146648</v>
+        <v>131492.7105916161</v>
       </c>
     </row>
   </sheetData>
@@ -13020,28 +13020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.5420952342137</v>
+        <v>223.5727752510192</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.3398567064132</v>
+        <v>305.9021344330271</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.5888247682037</v>
+        <v>276.7072640591717</v>
       </c>
       <c r="AD2" t="n">
-        <v>189542.0952342137</v>
+        <v>223572.7752510192</v>
       </c>
       <c r="AE2" t="n">
-        <v>259339.8567064132</v>
+        <v>305902.1344330271</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.677094673304775e-06</v>
+        <v>5.339762952106952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.401692708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>234588.8247682037</v>
+        <v>276707.2640591717</v>
       </c>
     </row>
     <row r="3">
@@ -13126,28 +13126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.2766905005929</v>
+        <v>131.8636390227124</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.4124565395298</v>
+        <v>180.4216483239771</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.534495775101</v>
+        <v>163.2024594313611</v>
       </c>
       <c r="AD3" t="n">
-        <v>106276.6905005929</v>
+        <v>131863.6390227125</v>
       </c>
       <c r="AE3" t="n">
-        <v>145412.4565395298</v>
+        <v>180421.6483239771</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.370120198258464e-06</v>
+        <v>7.798322162113408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.751953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>131534.495775101</v>
+        <v>163202.4594313611</v>
       </c>
     </row>
     <row r="4">
@@ -13232,28 +13232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.53023328266275</v>
+        <v>111.5882884726269</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.3404355568474</v>
+        <v>152.6800192160273</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.9963659177775</v>
+        <v>138.1084524698442</v>
       </c>
       <c r="AD4" t="n">
-        <v>94530.23328266275</v>
+        <v>111588.2884726269</v>
       </c>
       <c r="AE4" t="n">
-        <v>129340.4355568473</v>
+        <v>152680.0192160273</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.938257848496551e-06</v>
+        <v>8.62335405440132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.201822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>116996.3659177775</v>
+        <v>138108.4524698442</v>
       </c>
     </row>
     <row r="5">
@@ -13338,28 +13338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.60162303748089</v>
+        <v>111.659678227445</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.4381141688831</v>
+        <v>152.7776978280631</v>
       </c>
       <c r="AC5" t="n">
-        <v>117.0847222201735</v>
+        <v>138.1968087722401</v>
       </c>
       <c r="AD5" t="n">
-        <v>94601.62303748089</v>
+        <v>111659.678227445</v>
       </c>
       <c r="AE5" t="n">
-        <v>129438.1141688832</v>
+        <v>152777.6978280631</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.935505887271079e-06</v>
+        <v>8.619357741577477e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.205078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>117084.7222201735</v>
+        <v>138196.8087722401</v>
       </c>
     </row>
   </sheetData>
@@ -13635,28 +13635,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.5420127463211</v>
+        <v>142.0349917430546</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.7754821413264</v>
+        <v>194.3385418443547</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.8628747229719</v>
+        <v>175.7911441666409</v>
       </c>
       <c r="AD2" t="n">
-        <v>106542.0127463212</v>
+        <v>142034.9917430546</v>
       </c>
       <c r="AE2" t="n">
-        <v>145775.4821413264</v>
+        <v>194338.5418443547</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.573408233373712e-06</v>
+        <v>7.623599045753679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.678385416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>131862.8747229719</v>
+        <v>175791.1441666409</v>
       </c>
     </row>
   </sheetData>
@@ -13932,28 +13932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.12656139426423</v>
+        <v>111.9541843217115</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.5786491690797</v>
+        <v>153.1806540589303</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.0707921256112</v>
+        <v>138.5613074259861</v>
       </c>
       <c r="AD2" t="n">
-        <v>88126.56139426422</v>
+        <v>111954.1843217115</v>
       </c>
       <c r="AE2" t="n">
-        <v>120578.6491690797</v>
+        <v>153180.6540589303</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.926970764451837e-06</v>
+        <v>9.020296053171021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.738932291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>109070.7921256112</v>
+        <v>138561.3074259861</v>
       </c>
     </row>
     <row r="3">
@@ -14038,28 +14038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.42579871326888</v>
+        <v>108.082829440124</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.5151024028176</v>
+        <v>147.8836955178214</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.4905031559871</v>
+        <v>133.7698831737109</v>
       </c>
       <c r="AD3" t="n">
-        <v>84425.79871326887</v>
+        <v>108082.829440124</v>
       </c>
       <c r="AE3" t="n">
-        <v>115515.1024028176</v>
+        <v>147883.6955178214</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.192430829372357e-06</v>
+        <v>9.424301483776271e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>104490.5031559871</v>
+        <v>133769.8831737109</v>
       </c>
     </row>
   </sheetData>
@@ -14335,28 +14335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.7557461296846</v>
+        <v>141.3397504433495</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.7503627545526</v>
+        <v>193.3872820262172</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.5040123443443</v>
+        <v>174.9306712504447</v>
       </c>
       <c r="AD2" t="n">
-        <v>116755.7461296846</v>
+        <v>141339.7504433495</v>
       </c>
       <c r="AE2" t="n">
-        <v>159750.3627545526</v>
+        <v>193387.2820262171</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.034344775166499e-06</v>
+        <v>7.515827152236587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.507161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>144504.0123443443</v>
+        <v>174930.6712504447</v>
       </c>
     </row>
     <row r="3">
@@ -14441,28 +14441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.51049781516524</v>
+        <v>111.8385690736663</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.73572380135</v>
+        <v>153.0224641759701</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.3083143719242</v>
+        <v>138.4182149634347</v>
       </c>
       <c r="AD3" t="n">
-        <v>87510.49781516523</v>
+        <v>111838.5690736663</v>
       </c>
       <c r="AE3" t="n">
-        <v>119735.72380135</v>
+        <v>153022.4641759701</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.158599935322705e-06</v>
+        <v>9.194239703642476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.319010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>108308.3143719242</v>
+        <v>138418.2149634347</v>
       </c>
     </row>
   </sheetData>
